--- a/excel/percobaan1.xlsx
+++ b/excel/percobaan1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E4EFC-9401-44B0-AB58-78A3DA13F054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11100" yWindow="2340" windowWidth="17385" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,11 +380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,179 +465,176 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="A6">
+        <v>3411171166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3411171166</v>
+        <v>3411171167</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3411171167</v>
+        <v>3411171168</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3411171168</v>
+        <v>3411171169</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3411171169</v>
+        <v>3411171170</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3411171170</v>
+        <v>3411171171</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3411171171</v>
+        <v>3411171172</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3411171172</v>
+        <v>3411171173</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3411171173</v>
+        <v>3411171174</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3411171174</v>
+        <v>3411171175</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3411171175</v>
+        <v>3411171176</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3411171176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D17" r:id="rId10" display="3@gmail.com"/>
-    <hyperlink ref="D8" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
-    <hyperlink ref="D12" r:id="rId13"/>
-    <hyperlink ref="D14" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D16" r:id="rId10" display="3@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/percobaan1.xlsx
+++ b/excel/percobaan1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E4EFC-9401-44B0-AB58-78A3DA13F054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65644F53-A270-4DDF-9F72-589BB2E8A4ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="2340" windowWidth="17385" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="1995" windowWidth="17385" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>nim</t>
   </si>
@@ -37,9 +37,6 @@
     <t>2@gmail.com</t>
   </si>
   <si>
-    <t>hanafiwilly111@gmail.com</t>
-  </si>
-  <si>
     <t>Jurusan</t>
   </si>
   <si>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -409,25 +409,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3411171161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3411171162</v>
+        <v>3411161111</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -438,38 +427,33 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3411171163</v>
+        <v>3411161112</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3411171164</v>
+        <v>3411161113</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3411171166</v>
+        <v>3411161114</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -480,24 +464,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3411171167</v>
+        <v>3411161115</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3411171168</v>
+        <v>3411161116</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -508,24 +492,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3411171169</v>
+        <v>3411161117</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3411171170</v>
+        <v>3411161118</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -536,24 +520,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3411171171</v>
+        <v>3411161119</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3411171172</v>
+        <v>3411161120</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -564,24 +548,24 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3411171173</v>
+        <v>3411161121</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3411171174</v>
+        <v>3411161123</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -592,27 +576,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3411171175</v>
+        <v>3411161122</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3411171176</v>
+        <v>3411161124</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -621,21 +605,20 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D16" r:id="rId10" display="3@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D16" r:id="rId8" display="3@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>